--- a/results/performance/laserpower.xlsx
+++ b/results/performance/laserpower.xlsx
@@ -13,220 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="142">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>15.04.2021</t>
-  </si>
-  <si>
-    <t>16.04.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>15.04.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>15.04.2021</t>
-  </si>
-  <si>
-    <t>16.04.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>15.04.2021</t>
-  </si>
-  <si>
-    <t>16.04.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>15.04.2021</t>
-  </si>
-  <si>
-    <t>16.04.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>15.04.2021</t>
-  </si>
-  <si>
-    <t>16.04.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>15.04.2021</t>
-  </si>
-  <si>
-    <t>Samples</t>
-  </si>
-  <si>
-    <t>EGFPNup107</t>
-  </si>
-  <si>
-    <t>MeasurementsFilenames</t>
-  </si>
-  <si>
-    <t>01_EGFP-Nup107-nb-Img3-2nM_LP6_PH0.85_20210312_Minflux.msr</t>
-  </si>
-  <si>
-    <t>01_EGFP-Nup107-nb-Img3-2nM_LP6_PH0.85_20210415_Minflux.msr</t>
-  </si>
-  <si>
-    <t>01_EGFP-Nup107-nb-Img3-2nM_LP6_PH0.85_20210416_Minflux.msr</t>
-  </si>
-  <si>
-    <t>02_EGFP-Nup107-nb-Img3-2nM_LP4_PH0.85_20210416_Minflux.msr</t>
-  </si>
-  <si>
-    <t>02_EGFP-Nup107-nb-Img3-2nM_LP8_PH0.85_20210312_Minflux.msr</t>
-  </si>
-  <si>
-    <t>02_EGFP-Nup107-nb-Img3-2nM_LP8_PH0.85_20210415_Minflux.msr</t>
-  </si>
-  <si>
-    <t>03_EGFP-Nup107-nb-Img3-2nM_LP10_PH0.85_20210312_Minflux.msr</t>
-  </si>
-  <si>
-    <t>03_EGFP-Nup107-nb-Img3-2nM_LP10_PH0.85_20210415_Minflux.msr</t>
-  </si>
-  <si>
-    <t>03_EGFP-Nup107-nb-Img3-2nM_LP8_PH0.85_20210416_Minflux.msr</t>
-  </si>
-  <si>
-    <t>04_EGFP-Nup107-nb-Img3-2nM_LP10_PH0.85_20210416_Minflux.msr</t>
-  </si>
-  <si>
-    <t>04_EGFP-Nup107-nb-Img3-2nM_LP12_PH0.85_20210312_Minflux.msr</t>
-  </si>
-  <si>
-    <t>04_EGFP-Nup107-nb-Img3-2nM_LP12_PH0.85_20210415_Minflux.msr</t>
-  </si>
-  <si>
-    <t>05_EGFP-Nup107-nb-Img3-2nM_LP12_PH0.85_20210416_Minflux.msr</t>
-  </si>
-  <si>
-    <t>05_EGFP-Nup107-nb-Img3-2nM_LP14_PH0.85_20210312_Minflux.msr</t>
-  </si>
-  <si>
-    <t>04_EGFP-Nup107-nb-Img3-2nM_LP12_PH0.85_20210415_Minflux.msr</t>
-  </si>
-  <si>
-    <t>06_EGFP-Nup107-nb-Img3-2nM_LP14_PH0.85_20210416_Minflux.msr</t>
-  </si>
-  <si>
-    <t>06_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.85_20210312_Minflux.msr</t>
-  </si>
-  <si>
-    <t>06_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.85_20210415_Minflux.msr</t>
-  </si>
-  <si>
-    <t>07_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.85_20210416_Minflux.msr</t>
-  </si>
-  <si>
-    <t>07_EGFP-Nup107-nb-Img3-2nM_LP4_PH0.85_20210312_Minflux.msr</t>
-  </si>
-  <si>
-    <t>07_EGFP-Nup107-nb-Img3-2nM_LP4_PH0.85_20210415_Minflux.msr</t>
-  </si>
-  <si>
-    <t>MinfluxLasernm</t>
-  </si>
-  <si>
-    <t>MinfluxLaserpower</t>
-  </si>
-  <si>
-    <t>MinfluxPinholesizeAU</t>
-  </si>
-  <si>
-    <t>Activation405</t>
-  </si>
-  <si>
-    <t>MinfluxSequence</t>
-  </si>
-  <si>
-    <t>seqIIF.mf</t>
-  </si>
-  <si>
-    <t>DNA_PAINT_Sequence</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>Atto655</t>
-  </si>
-  <si>
-    <t>Buffer</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>ConcentrationnM</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Nanobody</t>
-  </si>
-  <si>
-    <t>ValidEventsRate</t>
-  </si>
-  <si>
-    <t>MedianFBG</t>
-  </si>
-  <si>
-    <t>MedianCFR</t>
-  </si>
-  <si>
-    <t>MedianScanTime</t>
-  </si>
-  <si>
-    <t>MedianLocTime</t>
-  </si>
-  <si>
-    <t>MedianSigmaX</t>
-  </si>
-  <si>
-    <t>MedianSigmaY</t>
-  </si>
-  <si>
-    <t>MedianSigmaZ</t>
-  </si>
-  <si>
-    <t>MedianSigmaR</t>
-  </si>
-  <si>
-    <t>FRCcombined</t>
-  </si>
-  <si>
-    <t>MeanLocPerEvent</t>
-  </si>
-  <si>
-    <t>TimeFilter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -459,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -468,15 +255,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,90 +303,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D2" s="0">
         <v>640</v>
@@ -616,22 +401,22 @@
         <v>0</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L2" s="0">
         <v>2</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N2" s="0">
         <v>0.03037165670092019</v>
@@ -661,7 +446,7 @@
         <v>3.2145125381954833</v>
       </c>
       <c r="W2" s="0">
-        <v>11.111111111111111</v>
+        <v>10.362694300518134</v>
       </c>
       <c r="X2" s="0">
         <v>5.7727272727272725</v>
@@ -672,13 +457,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0">
         <v>640</v>
@@ -693,22 +478,22 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L3" s="0">
         <v>2</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N3" s="0">
         <v>0.039656311962987439</v>
@@ -738,7 +523,7 @@
         <v>2.8177449390294993</v>
       </c>
       <c r="W3" s="0">
-        <v>11.976047904191615</v>
+        <v>11.049723756906078</v>
       </c>
       <c r="X3" s="0">
         <v>10.500594530321047</v>
@@ -749,13 +534,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0">
         <v>640</v>
@@ -770,22 +555,22 @@
         <v>0</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0">
         <v>2</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N4" s="0">
         <v>0.035829571614131202</v>
@@ -815,7 +600,7 @@
         <v>2.9570736658731764</v>
       </c>
       <c r="W4" s="0">
-        <v>11.560693641618496</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="X4" s="0">
         <v>7.024647887323944</v>
@@ -826,13 +611,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0">
         <v>640</v>
@@ -847,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L5" s="0">
         <v>2</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N5" s="0">
         <v>0.0048644465463657917</v>
@@ -892,7 +677,7 @@
         <v>3.858972933399988</v>
       </c>
       <c r="W5" s="0">
-        <v>42.553191489361694</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="X5" s="0">
         <v>4.4319066147859925</v>
@@ -903,13 +688,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0">
         <v>640</v>
@@ -924,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L6" s="0">
         <v>2</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N6" s="0">
         <v>0.066680330994508846</v>
@@ -969,7 +754,7 @@
         <v>3.1686496911898576</v>
       </c>
       <c r="W6" s="0">
-        <v>10.582010582010581</v>
+        <v>10.695187165775401</v>
       </c>
       <c r="X6" s="0">
         <v>8.980670103092784</v>
@@ -980,13 +765,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0">
         <v>640</v>
@@ -1001,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L7" s="0">
         <v>2</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N7" s="0">
         <v>0.067740126645179227</v>
@@ -1046,7 +831,7 @@
         <v>2.537201202710889</v>
       </c>
       <c r="W7" s="0">
-        <v>6.7796610169491522</v>
+        <v>6.8259385665529004</v>
       </c>
       <c r="X7" s="0">
         <v>14.327804878048781</v>
@@ -1057,13 +842,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0">
         <v>640</v>
@@ -1078,22 +863,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L8" s="0">
         <v>2</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N8" s="0">
         <v>0.094308863638382742</v>
@@ -1123,7 +908,7 @@
         <v>3.0616741547486042</v>
       </c>
       <c r="W8" s="0">
-        <v>8.2644628099173545</v>
+        <v>7.9365079365079358</v>
       </c>
       <c r="X8" s="0">
         <v>12.319760479041916</v>
@@ -1134,13 +919,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0">
         <v>640</v>
@@ -1155,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L9" s="0">
         <v>2</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N9" s="0">
         <v>0.087828472629067053</v>
@@ -1200,7 +985,7 @@
         <v>2.5243646810323237</v>
       </c>
       <c r="W9" s="0">
-        <v>6.6445182724252483</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="X9" s="0">
         <v>17.174876847290641</v>
@@ -1211,13 +996,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0">
         <v>640</v>
@@ -1232,22 +1017,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L10" s="0">
         <v>2</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N10" s="0">
         <v>0.083016603320664129</v>
@@ -1277,7 +1062,7 @@
         <v>2.5909647060547289</v>
       </c>
       <c r="W10" s="0">
-        <v>6.1728395061728394</v>
+        <v>6.4935064935064926</v>
       </c>
       <c r="X10" s="0">
         <v>14.982142857142858</v>
@@ -1288,13 +1073,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0">
         <v>640</v>
@@ -1309,22 +1094,22 @@
         <v>0</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L11" s="0">
         <v>2</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N11" s="0">
         <v>0.10660880902905105</v>
@@ -1354,7 +1139,7 @@
         <v>2.6379748943305628</v>
       </c>
       <c r="W11" s="0">
-        <v>8.1300813008130071</v>
+        <v>6.8728522336769755</v>
       </c>
       <c r="X11" s="0">
         <v>18.284275755228506</v>
@@ -1365,13 +1150,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0">
         <v>640</v>
@@ -1386,22 +1171,22 @@
         <v>0</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L12" s="0">
         <v>2</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N12" s="0">
         <v>0.12331739347655414</v>
@@ -1431,7 +1216,7 @@
         <v>2.9580512290595502</v>
       </c>
       <c r="W12" s="0">
-        <v>6.9930069930069925</v>
+        <v>7.7220077220077208</v>
       </c>
       <c r="X12" s="0">
         <v>16.99669312169312</v>
@@ -1442,13 +1227,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="D13" s="0">
         <v>640</v>
@@ -1463,22 +1248,22 @@
         <v>0</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L13" s="0">
         <v>2</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N13" s="0">
         <v>0.10340039705115912</v>
@@ -1508,7 +1293,7 @@
         <v>2.5609488375572806</v>
       </c>
       <c r="W13" s="0">
-        <v>8.5470085470085468</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="X13" s="0">
         <v>20.322463768115941</v>
@@ -1519,13 +1304,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0">
         <v>640</v>
@@ -1540,22 +1325,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L14" s="0">
         <v>2</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N14" s="0">
         <v>0.12779744594765458</v>
@@ -1585,7 +1370,7 @@
         <v>2.5222753412321968</v>
       </c>
       <c r="W14" s="0">
-        <v>6.7114093959731536</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="X14" s="0">
         <v>24.063466232709519</v>
@@ -1596,13 +1381,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0">
         <v>640</v>
@@ -1617,22 +1402,22 @@
         <v>0</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L15" s="0">
         <v>2</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N15" s="0">
         <v>0.13278655529837979</v>
@@ -1662,7 +1447,7 @@
         <v>2.6893022393151065</v>
       </c>
       <c r="W15" s="0">
-        <v>6.8728522336769755</v>
+        <v>6.9204152249134943</v>
       </c>
       <c r="X15" s="0">
         <v>21.614022140221401</v>
@@ -1673,13 +1458,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="D16" s="0">
         <v>640</v>
@@ -1694,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L16" s="0">
         <v>2</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N16" s="0">
         <v>0.10410844722946799</v>
@@ -1739,7 +1524,7 @@
         <v>2.411470395673903</v>
       </c>
       <c r="W16" s="0">
-        <v>5.6497175141242932</v>
+        <v>6.3897763578274756</v>
       </c>
       <c r="X16" s="0">
         <v>23.588619402985074</v>
@@ -1750,13 +1535,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0">
         <v>640</v>
@@ -1771,22 +1556,22 @@
         <v>0</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L17" s="0">
         <v>2</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N17" s="0">
         <v>0.10120189082759219</v>
@@ -1816,7 +1601,7 @@
         <v>2.6045029646867723</v>
       </c>
       <c r="W17" s="0">
-        <v>7.0175438596491224</v>
+        <v>7.3529411764705879</v>
       </c>
       <c r="X17" s="0">
         <v>21.98849472674976</v>
@@ -1827,13 +1612,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D18" s="0">
         <v>640</v>
@@ -1848,22 +1633,22 @@
         <v>0</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L18" s="0">
         <v>2</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N18" s="0">
         <v>0.12680190526850263</v>
@@ -1893,7 +1678,7 @@
         <v>2.9346603713821828</v>
       </c>
       <c r="W18" s="0">
-        <v>6.6889632107023402</v>
+        <v>6.9930069930069925</v>
       </c>
       <c r="X18" s="0">
         <v>19.556385362210605</v>
@@ -1904,13 +1689,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D19" s="0">
         <v>640</v>
@@ -1925,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L19" s="0">
         <v>2</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N19" s="0">
         <v>0.11605650154798762</v>
@@ -1970,7 +1755,7 @@
         <v>2.4820843390372844</v>
       </c>
       <c r="W19" s="0">
-        <v>6.0060060060060056</v>
+        <v>5.9523809523809526</v>
       </c>
       <c r="X19" s="0">
         <v>23.080869565217391</v>
@@ -1981,13 +1766,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D20" s="0">
         <v>640</v>
@@ -2002,22 +1787,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L20" s="0">
         <v>2</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N20" s="0">
         <v>0.11079482491134751</v>
@@ -2047,7 +1832,7 @@
         <v>2.534656807196928</v>
       </c>
       <c r="W20" s="0">
-        <v>6.7114093959731536</v>
+        <v>6.6225165562913899</v>
       </c>
       <c r="X20" s="0">
         <v>22.314799672935404</v>
@@ -2058,13 +1843,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="D21" s="0">
         <v>640</v>
@@ -2079,22 +1864,22 @@
         <v>0</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L21" s="0">
         <v>2</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N21" s="0">
         <v>0.0034953591579719064</v>
@@ -2124,7 +1909,7 @@
         <v>3.6405996957288309</v>
       </c>
       <c r="W21" s="0">
-        <v>52.631578947368418</v>
+        <v>40</v>
       </c>
       <c r="X21" s="0">
         <v>4.7771084337349397</v>
@@ -2135,13 +1920,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0">
         <v>640</v>
@@ -2156,22 +1941,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="L22" s="0">
         <v>2</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="N22" s="0">
         <v>0.0024259420956870706</v>
@@ -2201,7 +1986,7 @@
         <v>3.4894451851989499</v>
       </c>
       <c r="W22" s="0">
-        <v>64.516129032258064</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="X22" s="0">
         <v>4.75</v>
